--- a/data/hotels_by_city/Houston/Houston_shard_15.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_15.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55643-d106138-Reviews-Americas_Best_Value_Inn_Clute_Lake_Jackson-Clute_Texas.html</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Lake-Jackson-Hotels-Americas-Best-Value-Inn-CluteLake-Jackson.h7570.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,138 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106138-r396028773-Americas_Best_Value_Inn_Clute_Lake_Jackson-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>55643</t>
+  </si>
+  <si>
+    <t>106138</t>
+  </si>
+  <si>
+    <t>396028773</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Worst motel ever!!!</t>
+  </si>
+  <si>
+    <t>Desk clerk was and is rude. If you don't have a driver's licenses or state I'd. For each person that stays in the room the won't let you have a room! They don't tell you this when you book your room. Plus they have a deposit fee $50.00 also the room fee. If you don't have take anything then you might get the get the 50.00 back! I booked two rooms. One smell like mildew the other was fine!</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106138-r290429610-Americas_Best_Value_Inn_Clute_Lake_Jackson-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>290429610</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>Great After Beach Stay Hotel</t>
+  </si>
+  <si>
+    <t>This was a last minute decision to stay overnight in Clute after a day at Surfside Beach.  This was a great deal and a clean typical size room with two queen beds.  It was very clean.  Shower was nice and clean and very hot water.  Beds were OK if you like them a little firm.  The pool was nice and clean and warm, a great swim for after a day at the beach.  The breakfast in the morning was nice and surprisingly good.  The sausage and eggs were very good.  Suggestion is to add some fresh fruit and maybe warm biscuits and gravy.  We would stay here again for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>This was a last minute decision to stay overnight in Clute after a day at Surfside Beach.  This was a great deal and a clean typical size room with two queen beds.  It was very clean.  Shower was nice and clean and very hot water.  Beds were OK if you like them a little firm.  The pool was nice and clean and warm, a great swim for after a day at the beach.  The breakfast in the morning was nice and surprisingly good.  The sausage and eggs were very good.  Suggestion is to add some fresh fruit and maybe warm biscuits and gravy.  We would stay here again for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106138-r253282311-Americas_Best_Value_Inn_Clute_Lake_Jackson-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>253282311</t>
+  </si>
+  <si>
+    <t>02/08/2015</t>
+  </si>
+  <si>
+    <t>DIRTY &amp; BAD CUSTOMER SERVICE</t>
+  </si>
+  <si>
+    <t>My family and I traveled over 300 miles to visit family, we were tired and needed rest. The room was horrible, dusty,  sheet were dinghy,  bedspread were stained. The paint on the bathroom door was peeling. Half way home I realized I left my ring but I'm half way home. I called and explained who, I was and reason for calling. She told me I could come and check the room myself because the housekeeper will be in till 3 p.m. I asked if someone could go a check now and the name of your manager. She hung up and</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106138-r211555663-Americas_Best_Value_Inn_Clute_Lake_Jackson-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>211555663</t>
+  </si>
+  <si>
+    <t>06/22/2014</t>
+  </si>
+  <si>
+    <t>Disgusted</t>
+  </si>
+  <si>
+    <t>Went down to the area for the weekend to fish and have some family time.  Check-in process was simple.  Peaked my interest though when you walk-in to the registration office and an unpleasant smell lingers in the air.  Next was the room- Wow what a horrific smell.  They haven't cleaned this room in a while.  Dirty towel still on the shower curtain rod.  Hair and bugs in the bathroom.  Hair around the sink and countertop.  Dirt and yellowing stains on all the walls.  Holes in the wall from the door knob- and it wasn't recent because there was no new sheetrock dust on the floor.  They don't take care of the place at all and appears they don't really care, otherwise we wouldn't have all these issues.  With all the competition around them, this will be one hotel we will not be returning too.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Went down to the area for the weekend to fish and have some family time.  Check-in process was simple.  Peaked my interest though when you walk-in to the registration office and an unpleasant smell lingers in the air.  Next was the room- Wow what a horrific smell.  They haven't cleaned this room in a while.  Dirty towel still on the shower curtain rod.  Hair and bugs in the bathroom.  Hair around the sink and countertop.  Dirt and yellowing stains on all the walls.  Holes in the wall from the door knob- and it wasn't recent because there was no new sheetrock dust on the floor.  They don't take care of the place at all and appears they don't really care, otherwise we wouldn't have all these issues.  With all the competition around them, this will be one hotel we will not be returning too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106138-r209401607-Americas_Best_Value_Inn_Clute_Lake_Jackson-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>209401607</t>
+  </si>
+  <si>
+    <t>06/08/2014</t>
+  </si>
+  <si>
+    <t>Stay away!</t>
+  </si>
+  <si>
+    <t>There is a great deal of construction jobs in the Clute/Lake Jackson Texas area and the hotel seemed to be full of construction people.  We ran into two while checking in who were intoxicated.  When we arrived at about 11:00PM on a weeknight the person at the front desk could not find our reservation despite my presenting a confirmation number.  He said the confirmation number meant nothing to him.  The room we had was in a word, horrible.  The outside door had a hole in it large enough for a small rodent to get inside not to mention all the bugs!  The bathroom was not cleaned from the previous guest's stay.  Toothpaste in the sink and garbage in the basket.  I don't think the rooms have been renovated in years.  I would not have stayed except I was afraid since the room was guaranteed for late arrival I would have a struggle with getting my credit card credited for not staying there.  Surprisingly the pool area was very clean and well kept.  Too bad the rest of the was a dump.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>There is a great deal of construction jobs in the Clute/Lake Jackson Texas area and the hotel seemed to be full of construction people.  We ran into two while checking in who were intoxicated.  When we arrived at about 11:00PM on a weeknight the person at the front desk could not find our reservation despite my presenting a confirmation number.  He said the confirmation number meant nothing to him.  The room we had was in a word, horrible.  The outside door had a hole in it large enough for a small rodent to get inside not to mention all the bugs!  The bathroom was not cleaned from the previous guest's stay.  Toothpaste in the sink and garbage in the basket.  I don't think the rooms have been renovated in years.  I would not have stayed except I was afraid since the room was guaranteed for late arrival I would have a struggle with getting my credit card credited for not staying there.  Surprisingly the pool area was very clean and well kept.  Too bad the rest of the was a dump.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106138-r201807588-Americas_Best_Value_Inn_Clute_Lake_Jackson-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>201807588</t>
+  </si>
+  <si>
+    <t>04/19/2014</t>
+  </si>
+  <si>
+    <t>pleasant stay</t>
+  </si>
+  <si>
+    <t>this motel has a king size and the receptionist was friendly rooms are clean and did not hear any noise. breakfast included all this for total $ 62.00 receptionist even told me I could have as many people as I wanted in there of course I like to stay by my self so no body was there with me.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
 </sst>
 </file>
@@ -532,11 +670,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +702,463 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>18545</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>18545</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>18545</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>18545</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>18545</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>18545</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_15.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_15.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,99 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106138-r603913723-Americas_Best_Value_Inn_Clute_Lake_Jackson-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>55643</t>
+  </si>
+  <si>
+    <t>106138</t>
+  </si>
+  <si>
+    <t>603913723</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>My boyfriend enjoyed our stay at the ABVI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice rooms. Good prices. Don't enjoy the fifty dollar deposit .but other than that everything was great. We will be staying there in the future. Hoping to get a military discount next time and would be wonderful if a reward program were in place   </t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106138-r479028161-Americas_Best_Value_Inn_Clute_Lake_Jackson-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>479028161</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>ENTER AT YOUR OWN RISK</t>
+  </si>
+  <si>
+    <t>Seriously, it was awful.  Staff was rude, room was nasty(shoes stuck to the floor, found dirty washcloth on pushed back shower curtain, then tripped on an unmarked 2" step up in hallway to the room (ended up in the emergency room on that one).   And NO I had not had a drop of alcohol.   Husband had already paid for the room and staff said under NO Circumstances would they refund.  Wish we had just left but he had paid for two nights.  What a let down!!! We had stayed at the one in Riverside, Ca just nights before, it was a dream.  This one was definitely not in the same class.  How do they keep the franchise name I'd like to know.  Oh and we had to park a long ways from the room.  Laundry was nasty also, something oily dribbled all in the tub area ugh.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>ABVI M, Front Office Manager at Americas Best Value Inn - Clute / Lake Jackson, responded to this reviewResponded May 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2017</t>
+  </si>
+  <si>
+    <t>Seriously, it was awful.  Staff was rude, room was nasty(shoes stuck to the floor, found dirty washcloth on pushed back shower curtain, then tripped on an unmarked 2" step up in hallway to the room (ended up in the emergency room on that one).   And NO I had not had a drop of alcohol.   Husband had already paid for the room and staff said under NO Circumstances would they refund.  Wish we had just left but he had paid for two nights.  What a let down!!! We had stayed at the one in Riverside, Ca just nights before, it was a dream.  This one was definitely not in the same class.  How do they keep the franchise name I'd like to know.  Oh and we had to park a long ways from the room.  Laundry was nasty also, something oily dribbled all in the tub area ugh.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106138-r433775405-Americas_Best_Value_Inn_Clute_Lake_Jackson-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>433775405</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Run down and unclean</t>
+  </si>
+  <si>
+    <t>I realize this is a budget place to stay, but the rooms smelled of mold, AC wasn't cold, and hair was in the tub. Sheets were also stained. Peephole in the door was open completely. After checking in, had to go to a different hotel. Horrible place. Won't ever go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>ABVI M, Front Office Manager at Americas Best Value Inn - Clute / Lake Jackson, responded to this reviewResponded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2016</t>
+  </si>
+  <si>
+    <t>I realize this is a budget place to stay, but the rooms smelled of mold, AC wasn't cold, and hair was in the tub. Sheets were also stained. Peephole in the door was open completely. After checking in, had to go to a different hotel. Horrible place. Won't ever go back.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106138-r396028773-Americas_Best_Value_Inn_Clute_Lake_Jackson-Clute_Texas.html</t>
   </si>
   <si>
-    <t>55643</t>
-  </si>
-  <si>
-    <t>106138</t>
-  </si>
-  <si>
     <t>396028773</t>
   </si>
   <si>
@@ -216,6 +297,48 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106138-r230188455-Americas_Best_Value_Inn_Clute_Lake_Jackson-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>230188455</t>
+  </si>
+  <si>
+    <t>09/21/2014</t>
+  </si>
+  <si>
+    <t>Never Again....</t>
+  </si>
+  <si>
+    <t>After a 3 and a half hour drive I headed straight for the bathroom...There was pee splattered all over the toilet and in a puddle on the floor...I decided ok I will call and ask if someone can come clean it....while waiting I looked around and found what appeared to be coke or some kind of soda in the sink.  There were ants on the counter, food crumbs and coke spilled on the table and the bed had hairs in it.  I told the maids never mind I'm checking out.  The receptionist told me I couldn't have my money back but could change rooms.  My second room was not much better.  Still had a dirty toilet and table with coke and food crumbs on it but the bed was clean. The floor had food crumbs and sand still on it. I caught the maids and asked for cleaner to clean my room....they handed it to me and stood in the door way speaking in spanish while I cleaned my room. My family has stayed here many times in the past when it was Days Inn...Never had a problem.  This was my second time here since it has changed hands and I can say this will be the last!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>After a 3 and a half hour drive I headed straight for the bathroom...There was pee splattered all over the toilet and in a puddle on the floor...I decided ok I will call and ask if someone can come clean it....while waiting I looked around and found what appeared to be coke or some kind of soda in the sink.  There were ants on the counter, food crumbs and coke spilled on the table and the bed had hairs in it.  I told the maids never mind I'm checking out.  The receptionist told me I couldn't have my money back but could change rooms.  My second room was not much better.  Still had a dirty toilet and table with coke and food crumbs on it but the bed was clean. The floor had food crumbs and sand still on it. I caught the maids and asked for cleaner to clean my room....they handed it to me and stood in the door way speaking in spanish while I cleaned my room. My family has stayed here many times in the past when it was Days Inn...Never had a problem.  This was my second time here since it has changed hands and I can say this will be the last!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106138-r226609117-Americas_Best_Value_Inn_Clute_Lake_Jackson-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>226609117</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>not very clean</t>
+  </si>
+  <si>
+    <t>I went down to Clute for the Labor day weekend with my son for some family time. The only thing that was clean was the beds. The towels hanging in the bathroom had unknown hairs on them that were not blonde. The free breakfast was gone by the time we made it down to eat. My room was on the side facing the street light so it felt as if I was sleeping at an airport and there was constant stomping from the neighbors next door. Oh and the WIFi was non existent. The only thing that was good about the stay was that it was about 5 miles from Surfside Beach.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>I went down to Clute for the Labor day weekend with my son for some family time. The only thing that was clean was the beds. The towels hanging in the bathroom had unknown hairs on them that were not blonde. The free breakfast was gone by the time we made it down to eat. My room was on the side facing the street light so it felt as if I was sleeping at an airport and there was constant stomping from the neighbors next door. Oh and the WIFi was non existent. The only thing that was good about the stay was that it was about 5 miles from Surfside Beach.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d106138-r211555663-Americas_Best_Value_Inn_Clute_Lake_Jackson-Clute_Texas.html</t>
   </si>
   <si>
@@ -274,9 +397,6 @@
   </si>
   <si>
     <t>January 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
   </si>
 </sst>
 </file>
@@ -811,7 +931,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -820,16 +940,20 @@
         <v>52</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -874,33 +998,37 @@
         <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
         <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R3" t="s"/>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -916,7 +1044,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -925,25 +1053,25 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -954,10 +1082,14 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -973,7 +1105,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -982,41 +1114,37 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1024,7 +1152,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1040,7 +1168,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1049,41 +1177,37 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1091,7 +1215,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
@@ -1107,7 +1231,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1116,49 +1240,366 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>18545</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>18545</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>18545</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>18545</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>119</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>18545</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
